--- a/Test_Suite/app_adminonly.xlsx
+++ b/Test_Suite/app_adminonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48B4AF-CEE9-4B01-B5EF-8550AEBFE4BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C97473-9EC8-422C-BB5C-52E5083DE3EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,22 +37,22 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CommonUtils.Reboot()</t>
-  </si>
-  <si>
-    <t>CommonUtils.SwitchToAdmin()</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>CommonUtils.SwitchToUser()</t>
-  </si>
-  <si>
     <t>Shell_Application().create('adminonly')</t>
   </si>
   <si>
     <t>Shell_Application().check('adminonly')</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToUser()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.Reboot()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,13 +410,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -424,10 +424,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -435,23 +435,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test_Suite/app_adminonly.xlsx
+++ b/Test_Suite/app_adminonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C97473-9EC8-422C-BB5C-52E5083DE3EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BBCACF-7740-4853-9AB0-06A04953E1B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
+  </si>
+  <si>
+    <t>EasyShellTest().resetEasyshell()</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,77 +409,82 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C47" s="4"/>
@@ -494,14 +502,17 @@
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
